--- a/public/IMPORT_TNVED_6302_19_03.xlsx
+++ b/public/IMPORT_TNVED_6302_19_03.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="IMPORT_TNVED_6302" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Справочники" state="visible" r:id="rId5"/>
+    <sheet name="IMPORT_TNVED_6302" sheetId="1" r:id="rId1"/>
+    <sheet name="Справочники" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="254">
   <si>
     <t>Код ТНВЭД</t>
   </si>
@@ -122,9 +123,6 @@
     <t>6302</t>
   </si>
   <si>
-    <t>Простыня из тенселя на резинке 140х200х30 - М - 60S 4166 Мята</t>
-  </si>
-  <si>
     <t>Ивановский текстиль</t>
   </si>
   <si>
@@ -143,6 +141,9 @@
     <t>100% Эвкалипт</t>
   </si>
   <si>
+    <t>140х200</t>
+  </si>
+  <si>
     <t>6302100001</t>
   </si>
   <si>
@@ -152,9 +153,6 @@
     <t>На модерации</t>
   </si>
   <si>
-    <t>Пододеяльник из варёного хлопка 200 х 200 - М - 339 Синий</t>
-  </si>
-  <si>
     <t>ПОДОДЕЯЛЬНИК С КЛАПАНОМ</t>
   </si>
   <si>
@@ -164,13 +162,10 @@
     <t>100% Хлопок</t>
   </si>
   <si>
-    <t>Пододеяльник из сатина 220 х 240 - М - Черный</t>
-  </si>
-  <si>
     <t>САТИН</t>
   </si>
   <si>
-    <t>Простыня из страйп-сатина 150 х 220 - М - 125 - Бирюза 1х1</t>
+    <t>220х240</t>
   </si>
   <si>
     <t>ПРОСТЫНЯ</t>
@@ -179,9 +174,6 @@
     <t>СТРАЙП-САТИН</t>
   </si>
   <si>
-    <t>Простыня из варёного хлопка 200 х 220 - М - 638 Бежевый</t>
-  </si>
-  <si>
     <t>Простыня из страйп-сатина 220 х 240 - М - 140 - Черный 3х3</t>
   </si>
   <si>
@@ -191,9 +183,15 @@
     <t>Простыня из тенселя на резинке 180х200х30 - М - 60S Белый</t>
   </si>
   <si>
+    <t>180х200</t>
+  </si>
+  <si>
     <t>Пододеяльник из страйп-сатина 175 х 215 - М - 125 - Черника 1х1</t>
   </si>
   <si>
+    <t>175х215</t>
+  </si>
+  <si>
     <t>Пододеяльник из страйп-сатина 175 х 215 - М - 125 - Фисташка 1х1</t>
   </si>
   <si>
@@ -203,22 +201,34 @@
     <t>Пододеяльник из страйп сатина 150 х 200 - М - 140 - Белый 3х3</t>
   </si>
   <si>
+    <t>150х200</t>
+  </si>
+  <si>
     <t>Наволочка из сатина 40 х 40 - М - 140 - Лаванда Люкс</t>
   </si>
   <si>
     <t>НАВОЛОЧКА КВАДРАТНАЯ</t>
   </si>
   <si>
+    <t>40х40</t>
+  </si>
+  <si>
     <t>Наволочка из сатина 50 х 70 - М - 120 - Лавандовый</t>
   </si>
   <si>
     <t>НАВОЛОЧКА ПРЯМОУГОЛЬНАЯ</t>
   </si>
   <si>
+    <t>50х70</t>
+  </si>
+  <si>
     <t>Простыня из сатина на резинке 140 x 200 х 20 - М - 140 - Лавандовый</t>
   </si>
   <si>
     <t>Наволочка из сатина 70 х 70 - М - 140 - Белая</t>
+  </si>
+  <si>
+    <t>70х70</t>
   </si>
   <si>
     <t>Наволочка из сатина 50 х 70 - М - 125 - Белая</t>
@@ -776,24 +786,24 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <charset val="1"/>
-      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <charset val="1"/>
-      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -821,7 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="E3E3E3"/>
+        <fgColor rgb="FFE3E3E3"/>
       </patternFill>
     </fill>
     <fill>
@@ -846,17 +856,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -865,7 +883,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -877,32 +895,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1178,28 +1179,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="73" zoomScaleNormal="100">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="77.85546875" customWidth="1"/>
-    <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="5" width="35" customWidth="1"/>
-    <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
-    <col min="14" max="14" width="47" customWidth="1"/>
-    <col min="15" max="15" width="53" customWidth="1"/>
-    <col min="16" max="1024" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>29</v>
@@ -1383,107 +1377,113 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" t="s">
+      <c r="I5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>42</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="K6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>42</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="J7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="L7" s="6" t="s">
         <v>42</v>
       </c>
@@ -1494,217 +1494,223 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6" t="s">
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M12" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="K13" t="s">
+        <v>67</v>
       </c>
       <c r="L13" t="s">
         <v>42</v>
@@ -1716,30 +1722,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="K14" t="s">
+        <v>41</v>
       </c>
       <c r="L14" t="s">
         <v>42</v>
@@ -1751,30 +1760,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
       <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
         <v>38</v>
       </c>
-      <c r="H15" t="s">
-        <v>39</v>
-      </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="K15" t="s">
+        <v>70</v>
       </c>
       <c r="L15" t="s">
         <v>42</v>
@@ -1786,30 +1798,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="K16" t="s">
+        <v>67</v>
       </c>
       <c r="L16" t="s">
         <v>42</v>
@@ -1826,25 +1841,28 @@
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="K17" t="s">
+        <v>67</v>
       </c>
       <c r="L17" t="s">
         <v>42</v>
@@ -1856,193 +1874,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" t="s">
-        <v>43</v>
-      </c>
-      <c r="N19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" t="s">
-        <v>43</v>
-      </c>
-      <c r="N20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" t="s">
-        <v>43</v>
-      </c>
-      <c r="N21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" t="s">
-        <v>48</v>
-      </c>
-      <c r="L22" t="s">
-        <v>42</v>
-      </c>
-      <c r="M22" t="s">
-        <v>43</v>
-      </c>
-      <c r="N22" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B5:B12"/>
-  <conditionalFormatting sqref="B5:B12"/>
-  <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" scale="0" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2050,11 +1883,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B207"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
@@ -2062,17 +1895,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="6"/>
+      <c r="A1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="9"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2085,26 +1918,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2120,7 +1953,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2128,7 +1961,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2136,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2144,7 +1977,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2152,7 +1985,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2160,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2168,7 +2001,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2176,7 +2009,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2192,7 +2025,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2200,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2208,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2216,7 +2049,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2224,7 +2057,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2232,7 +2065,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2240,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2248,7 +2081,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2256,7 +2089,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2264,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,7 +2105,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2113,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2288,7 +2121,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2296,7 +2129,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2137,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2312,7 +2145,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2328,7 +2161,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2336,7 +2169,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2344,7 +2177,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2352,7 +2185,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2360,7 +2193,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2376,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2217,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,7 +2225,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +2233,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2408,7 +2241,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2416,7 +2249,7 @@
         <v>5</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2424,7 +2257,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,7 +2265,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,7 +2273,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2448,7 +2281,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2289,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +2297,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,7 +2305,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,7 +2313,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2488,7 +2321,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,7 +2329,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2504,7 +2337,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,7 +2345,7 @@
         <v>5</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2520,7 +2353,7 @@
         <v>5</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2528,7 +2361,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2369,7 @@
         <v>5</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,7 +2377,7 @@
         <v>5</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2552,7 +2385,7 @@
         <v>5</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2560,7 +2393,7 @@
         <v>5</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2568,7 +2401,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2576,7 +2409,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2584,7 +2417,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,7 +2425,7 @@
         <v>5</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2600,7 +2433,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2441,7 @@
         <v>5</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2449,7 @@
         <v>5</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2457,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2465,7 @@
         <v>5</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2473,7 @@
         <v>5</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2481,7 @@
         <v>5</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2489,7 @@
         <v>5</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2497,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2505,7 @@
         <v>5</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2513,7 @@
         <v>5</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2521,7 @@
         <v>5</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2529,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2537,7 @@
         <v>5</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2545,7 @@
         <v>5</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2553,7 @@
         <v>5</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2561,7 @@
         <v>5</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2569,7 @@
         <v>5</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2744,7 +2577,7 @@
         <v>5</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2752,7 +2585,7 @@
         <v>5</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2760,7 +2593,7 @@
         <v>5</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,7 +2601,7 @@
         <v>5</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2776,7 +2609,7 @@
         <v>5</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2784,7 +2617,7 @@
         <v>5</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2792,7 +2625,7 @@
         <v>5</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2800,7 +2633,7 @@
         <v>5</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2808,7 +2641,7 @@
         <v>5</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2816,7 +2649,7 @@
         <v>5</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2824,7 +2657,7 @@
         <v>5</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2832,7 +2665,7 @@
         <v>5</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2840,7 +2673,7 @@
         <v>5</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2681,7 @@
         <v>5</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2856,7 +2689,7 @@
         <v>5</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2864,7 +2697,7 @@
         <v>5</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2872,7 +2705,7 @@
         <v>5</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2880,7 +2713,7 @@
         <v>5</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2888,7 +2721,7 @@
         <v>5</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2896,7 +2729,7 @@
         <v>5</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2904,7 +2737,7 @@
         <v>5</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2912,7 +2745,7 @@
         <v>5</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2753,7 @@
         <v>5</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2928,7 +2761,7 @@
         <v>5</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2936,7 +2769,7 @@
         <v>5</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2944,7 +2777,7 @@
         <v>5</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2952,7 +2785,7 @@
         <v>5</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2960,7 +2793,7 @@
         <v>5</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2968,7 +2801,7 @@
         <v>5</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2984,7 +2817,7 @@
         <v>6</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +2825,7 @@
         <v>6</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3000,7 +2833,7 @@
         <v>6</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3008,7 +2841,7 @@
         <v>6</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3024,7 +2857,7 @@
         <v>7</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -3032,7 +2865,7 @@
         <v>7</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -3040,7 +2873,7 @@
         <v>7</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -3048,7 +2881,7 @@
         <v>7</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -3056,7 +2889,7 @@
         <v>7</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -3064,7 +2897,7 @@
         <v>7</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -3072,7 +2905,7 @@
         <v>7</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -3080,7 +2913,7 @@
         <v>7</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3088,7 +2921,7 @@
         <v>7</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -3096,7 +2929,7 @@
         <v>7</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -3104,7 +2937,7 @@
         <v>7</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3112,7 +2945,7 @@
         <v>7</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3120,7 +2953,7 @@
         <v>7</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3128,7 +2961,7 @@
         <v>7</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -3136,7 +2969,7 @@
         <v>7</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -3144,7 +2977,7 @@
         <v>7</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3152,7 +2985,7 @@
         <v>7</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -3160,7 +2993,7 @@
         <v>7</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -3168,7 +3001,7 @@
         <v>7</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3176,7 +3009,7 @@
         <v>7</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3184,7 +3017,7 @@
         <v>7</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3192,7 +3025,7 @@
         <v>7</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -3200,7 +3033,7 @@
         <v>7</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -3208,7 +3041,7 @@
         <v>7</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3216,7 +3049,7 @@
         <v>7</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3224,7 +3057,7 @@
         <v>7</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -3232,7 +3065,7 @@
         <v>7</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3240,7 +3073,7 @@
         <v>7</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3248,7 +3081,7 @@
         <v>7</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3256,7 +3089,7 @@
         <v>7</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3264,7 +3097,7 @@
         <v>7</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -3272,7 +3105,7 @@
         <v>7</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3280,7 +3113,7 @@
         <v>7</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3288,7 +3121,7 @@
         <v>7</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3296,7 +3129,7 @@
         <v>7</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3304,7 +3137,7 @@
         <v>7</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -3312,7 +3145,7 @@
         <v>7</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3320,7 +3153,7 @@
         <v>7</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3328,7 +3161,7 @@
         <v>7</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -3336,7 +3169,7 @@
         <v>7</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -3344,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -3352,7 +3185,7 @@
         <v>7</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3360,7 +3193,7 @@
         <v>7</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -3368,7 +3201,7 @@
         <v>7</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3376,7 +3209,7 @@
         <v>7</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3384,7 +3217,7 @@
         <v>7</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3392,7 +3225,7 @@
         <v>7</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3400,7 +3233,7 @@
         <v>7</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3408,7 +3241,7 @@
         <v>7</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -3416,7 +3249,7 @@
         <v>7</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3424,7 +3257,7 @@
         <v>7</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3432,7 +3265,7 @@
         <v>7</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3440,7 +3273,7 @@
         <v>7</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3448,7 +3281,7 @@
         <v>7</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3456,7 +3289,7 @@
         <v>7</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -3464,7 +3297,7 @@
         <v>7</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3472,7 +3305,7 @@
         <v>7</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3480,7 +3313,7 @@
         <v>7</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3488,7 +3321,7 @@
         <v>7</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3496,7 +3329,7 @@
         <v>7</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3504,7 +3337,7 @@
         <v>7</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3512,7 +3345,7 @@
         <v>7</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3520,7 +3353,7 @@
         <v>7</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3528,7 +3361,7 @@
         <v>7</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3536,7 +3369,7 @@
         <v>7</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3544,7 +3377,7 @@
         <v>7</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3552,7 +3385,7 @@
         <v>7</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3560,7 +3393,7 @@
         <v>7</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3568,7 +3401,7 @@
         <v>7</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3576,7 +3409,7 @@
         <v>7</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3604,7 +3437,7 @@
         <v>10</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3612,7 +3445,7 @@
         <v>10</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3620,7 +3453,7 @@
         <v>10</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3628,7 +3461,7 @@
         <v>10</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3644,7 +3477,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" scale="0" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="0"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
